--- a/Data/Tables/Debate_Wins.xlsx
+++ b/Data/Tables/Debate_Wins.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDE2DFE-FC88-4378-BE5B-100EC665EE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17837B2-6F46-40D9-94F9-DF4E06011F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{01148236-0E3A-41EC-A501-E5FB4C731FFA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{01148236-0E3A-41EC-A501-E5FB4C731FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Gemini" sheetId="8" r:id="rId1"/>
     <sheet name="Mistral" sheetId="7" r:id="rId2"/>
     <sheet name="GPT" sheetId="6" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Gemini!$A$1:$Q$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
   <si>
     <t>Christianity</t>
   </si>
@@ -139,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,12 +152,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,15 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -540,10 +534,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445C94FD-A203-4EF7-AC65-DA43755DEC7F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView zoomScale="67" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +564,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
+      <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -636,17 +633,17 @@
       <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="5">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4">
         <f>SUM(B2:P2)</f>
         <v>10</v>
       </c>
@@ -658,10 +655,10 @@
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2">
         <v>0</v>
       </c>
@@ -674,13 +671,13 @@
       <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="5">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="4">
         <f t="shared" ref="Q3:Q8" si="0">SUM(B3:P3)</f>
         <v>0</v>
       </c>
@@ -689,19 +686,19 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="2">
         <v>0</v>
       </c>
@@ -711,10 +708,10 @@
       <c r="M4" s="2">
         <v>6</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -723,32 +720,32 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="2">
         <v>4</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="2">
         <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>40</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -757,32 +754,32 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="2">
         <v>0</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="2">
         <v>0</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -791,32 +788,32 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="2">
         <v>1</v>
       </c>
       <c r="P7" s="2">
         <v>0</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -870,7 +867,7 @@
       <c r="P8" s="2">
         <v>0</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <f t="shared" si="0"/>
         <v>312</v>
       </c>
@@ -879,67 +876,67 @@
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f>SUM(B2:B8)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" ref="C9:P9" si="1">SUM(C2:C8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="E9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <f>SUM(F2:F8)</f>
         <v>100</v>
       </c>
-      <c r="G9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="L9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
+      <c r="L9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="P9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
+      <c r="P9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <f>SUM(Q2:Q8)</f>
         <v>382</v>
       </c>
@@ -950,16 +947,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1082A0FD-D701-45E3-A926-C99FF4668F18}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView zoomScale="61" workbookViewId="0">
+      <selection activeCell="Q9" sqref="A1:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,7 +984,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
+      <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1052,17 +1053,17 @@
       <c r="F2" s="2">
         <v>51</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3">
         <f>SUM(B2:P2)</f>
         <v>207</v>
       </c>
@@ -1074,10 +1075,10 @@
       <c r="B3" s="2">
         <v>67</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2">
         <v>39</v>
       </c>
@@ -1090,13 +1091,13 @@
       <c r="J3" s="2">
         <v>68</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
         <f t="shared" ref="Q3:Q8" si="0">SUM(B3:P3)</f>
         <v>246</v>
       </c>
@@ -1105,19 +1106,19 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2">
         <v>96</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="2">
         <v>98</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="2">
         <v>4</v>
       </c>
@@ -1127,10 +1128,10 @@
       <c r="M4" s="2">
         <v>32</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
@@ -1139,32 +1140,32 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="2">
         <v>132</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2">
         <v>100</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="2">
         <v>133</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="2">
         <v>91</v>
       </c>
       <c r="O5" s="2">
         <v>59</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3">
         <f t="shared" si="0"/>
         <v>515</v>
       </c>
@@ -1173,32 +1174,32 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
         <v>35</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="2">
         <v>73</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="2">
         <v>94</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="2">
         <v>46</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="2">
         <v>36</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <f t="shared" si="0"/>
         <v>284</v>
       </c>
@@ -1207,32 +1208,32 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="2">
         <v>75</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="2">
         <v>62</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="2">
         <v>89</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="2">
         <v>72</v>
       </c>
       <c r="P7" s="2">
         <v>80</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
@@ -1286,7 +1287,7 @@
       <c r="P8" s="2">
         <v>34</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <f t="shared" si="0"/>
         <v>368</v>
       </c>
@@ -1295,82 +1296,86 @@
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f>SUM(B2:B8)</f>
         <v>150</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" ref="C9:P9" si="1">SUM(C2:C8)</f>
         <v>150</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f>SUM(F2:F8)</f>
         <v>150</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <f>SUM(Q2:Q8)</f>
         <v>2250</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69287C9A-8FAF-4C60-8531-B18B089A539E}">
-  <dimension ref="A1:Q44"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="36" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1390,11 +1395,11 @@
     <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" style="6"/>
+    <col min="17" max="17" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
+      <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1463,17 +1468,17 @@
       <c r="F2" s="2">
         <v>29</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="5">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4">
         <f>SUM(B2:P2)</f>
         <v>194</v>
       </c>
@@ -1485,10 +1490,10 @@
       <c r="B3" s="2">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2">
         <v>38</v>
       </c>
@@ -1501,13 +1506,13 @@
       <c r="J3" s="2">
         <v>24</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="5">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="4">
         <f t="shared" ref="Q3:Q8" si="0">SUM(B3:P3)</f>
         <v>143</v>
       </c>
@@ -1516,19 +1521,19 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="2">
         <v>3</v>
       </c>
@@ -1538,10 +1543,10 @@
       <c r="M4" s="2">
         <v>17</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -1550,32 +1555,32 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="2">
         <v>9</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2">
         <v>8</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="2">
         <v>49</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="2">
         <v>10</v>
       </c>
       <c r="O5" s="2">
         <v>26</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
@@ -1584,32 +1589,32 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="2">
         <v>10</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="2">
         <v>34</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="2">
         <v>35</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="2">
         <v>26</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
@@ -1618,32 +1623,32 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="2">
         <v>28</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="2">
         <v>24</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="2">
         <v>11</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="2">
         <v>7</v>
       </c>
       <c r="P7" s="2">
         <v>19</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -1697,7 +1702,7 @@
       <c r="P8" s="2">
         <v>0</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1706,67 +1711,67 @@
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f>SUM(B2:B8)</f>
         <v>49</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" ref="C9:P9" si="1">SUM(C2:C8)</f>
         <v>45</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f>SUM(F2:F8)</f>
         <v>57</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <f>SUM(Q2:Q8)</f>
         <v>673</v>
       </c>
@@ -1776,37 +1781,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>